--- a/app/src/main/assets/zhexian.xlsx
+++ b/app/src/main/assets/zhexian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204A949D-9AF3-4C30-89F4-3D93485ED73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C74BB0-966E-4396-977A-D73D9EE41284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,41 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>高一上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高二下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高二上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高三第一次模拟考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高三第二次模拟考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高三第三次模拟考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期中考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高数A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,82 +389,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="16.2109375" customWidth="1"/>
+    <col min="6" max="6" width="19.2109375" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
       <c r="B2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
       <c r="B5">
-        <v>122.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>120</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>86.5</v>
       </c>
     </row>
   </sheetData>
